--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Lama2-Itga7.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Lama2-Itga7.xlsx
@@ -528,22 +528,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>2.452389333333333</v>
+        <v>1.069299666666667</v>
       </c>
       <c r="H2">
-        <v>7.357168</v>
+        <v>3.207899</v>
       </c>
       <c r="I2">
-        <v>0.007993767302975028</v>
+        <v>0.003616700200628781</v>
       </c>
       <c r="J2">
-        <v>0.007993767302975028</v>
+        <v>0.003616700200628781</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.349417</v>
+        <v>1.743137</v>
       </c>
       <c r="N2">
-        <v>10.048251</v>
+        <v>5.229411</v>
       </c>
       <c r="O2">
-        <v>0.0602955800561437</v>
+        <v>0.03144673183548247</v>
       </c>
       <c r="P2">
-        <v>0.0602955800561437</v>
+        <v>0.03144673183548247</v>
       </c>
       <c r="Q2">
-        <v>8.214074523685333</v>
+        <v>1.863935813054334</v>
       </c>
       <c r="R2">
-        <v>73.92667071316799</v>
+        <v>16.775422317489</v>
       </c>
       <c r="S2">
-        <v>0.0004819888363667147</v>
+        <v>0.0001137334013385089</v>
       </c>
       <c r="T2">
-        <v>0.0004819888363667146</v>
+        <v>0.0001137334013385089</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,22 +590,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>2.452389333333333</v>
+        <v>1.069299666666667</v>
       </c>
       <c r="H3">
-        <v>7.357168</v>
+        <v>3.207899</v>
       </c>
       <c r="I3">
-        <v>0.007993767302975028</v>
+        <v>0.003616700200628781</v>
       </c>
       <c r="J3">
-        <v>0.007993767302975028</v>
+        <v>0.003616700200628781</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -617,25 +617,25 @@
         <v>1.282876</v>
       </c>
       <c r="N3">
-        <v>3.848628000000001</v>
+        <v>3.848628</v>
       </c>
       <c r="O3">
-        <v>0.023094094452887</v>
+        <v>0.02314348071905789</v>
       </c>
       <c r="P3">
-        <v>0.023094094452887</v>
+        <v>0.02314348071905789</v>
       </c>
       <c r="Q3">
-        <v>3.146111418389333</v>
+        <v>1.371778879174667</v>
       </c>
       <c r="R3">
-        <v>28.315002765504</v>
+        <v>12.346009912572</v>
       </c>
       <c r="S3">
-        <v>0.000184608817129305</v>
+        <v>8.3703031359865E-05</v>
       </c>
       <c r="T3">
-        <v>0.000184608817129305</v>
+        <v>8.370303135986499E-05</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,22 +652,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>2.452389333333333</v>
+        <v>1.069299666666667</v>
       </c>
       <c r="H4">
-        <v>7.357168</v>
+        <v>3.207899</v>
       </c>
       <c r="I4">
-        <v>0.007993767302975028</v>
+        <v>0.003616700200628781</v>
       </c>
       <c r="J4">
-        <v>0.007993767302975028</v>
+        <v>0.003616700200628781</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>50.917666</v>
+        <v>52.405407</v>
       </c>
       <c r="N4">
-        <v>152.752998</v>
+        <v>157.216221</v>
       </c>
       <c r="O4">
-        <v>0.9166103254909692</v>
+        <v>0.9454097874454597</v>
       </c>
       <c r="P4">
-        <v>0.9166103254909692</v>
+        <v>0.9454097874454597</v>
       </c>
       <c r="Q4">
-        <v>124.8699409766293</v>
+        <v>56.03708423663101</v>
       </c>
       <c r="R4">
-        <v>1123.829468789664</v>
+        <v>504.3337581296791</v>
       </c>
       <c r="S4">
-        <v>0.007327169649479007</v>
+        <v>0.003419263767930407</v>
       </c>
       <c r="T4">
-        <v>0.007327169649479007</v>
+        <v>0.003419263767930407</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>730.7018890000001</v>
       </c>
       <c r="I5">
-        <v>0.7939278902575405</v>
+        <v>0.8238194745364892</v>
       </c>
       <c r="J5">
-        <v>0.7939278902575405</v>
+        <v>0.8238194745364891</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>3.349417</v>
+        <v>1.743137</v>
       </c>
       <c r="N5">
-        <v>10.048251</v>
+        <v>5.229411</v>
       </c>
       <c r="O5">
-        <v>0.0602955800561437</v>
+        <v>0.03144673183548247</v>
       </c>
       <c r="P5">
-        <v>0.0602955800561437</v>
+        <v>0.03144673183548247</v>
       </c>
       <c r="Q5">
-        <v>815.8084429829045</v>
+        <v>424.5711662285977</v>
       </c>
       <c r="R5">
-        <v>7342.27598684614</v>
+        <v>3821.140496057379</v>
       </c>
       <c r="S5">
-        <v>0.04787034266582881</v>
+        <v>0.02590643009659706</v>
       </c>
       <c r="T5">
-        <v>0.0478703426658288</v>
+        <v>0.02590643009659705</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>730.7018890000001</v>
       </c>
       <c r="I6">
-        <v>0.7939278902575405</v>
+        <v>0.8238194745364892</v>
       </c>
       <c r="J6">
-        <v>0.7939278902575405</v>
+        <v>0.8238194745364891</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,25 +803,25 @@
         <v>1.282876</v>
       </c>
       <c r="N6">
-        <v>3.848628000000001</v>
+        <v>3.848628</v>
       </c>
       <c r="O6">
-        <v>0.023094094452887</v>
+        <v>0.02314348071905789</v>
       </c>
       <c r="P6">
-        <v>0.023094094452887</v>
+        <v>0.02314348071905789</v>
       </c>
       <c r="Q6">
         <v>312.4666388509214</v>
       </c>
       <c r="R6">
-        <v>2812.199749658293</v>
+        <v>2812.199749658292</v>
       </c>
       <c r="S6">
-        <v>0.01833504568638894</v>
+        <v>0.01906605012491964</v>
       </c>
       <c r="T6">
-        <v>0.01833504568638894</v>
+        <v>0.01906605012491964</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>730.7018890000001</v>
       </c>
       <c r="I7">
-        <v>0.7939278902575405</v>
+        <v>0.8238194745364892</v>
       </c>
       <c r="J7">
-        <v>0.7939278902575405</v>
+        <v>0.8238194745364891</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>50.917666</v>
+        <v>52.405407</v>
       </c>
       <c r="N7">
-        <v>152.752998</v>
+        <v>157.216221</v>
       </c>
       <c r="O7">
-        <v>0.9166103254909692</v>
+        <v>0.9454097874454597</v>
       </c>
       <c r="P7">
-        <v>0.9166103254909692</v>
+        <v>0.9454097874454597</v>
       </c>
       <c r="Q7">
-        <v>12401.87824322369</v>
+        <v>12764.24329623794</v>
       </c>
       <c r="R7">
-        <v>111616.9041890132</v>
+        <v>114878.1896661415</v>
       </c>
       <c r="S7">
-        <v>0.7277225019053227</v>
+        <v>0.7788469943149725</v>
       </c>
       <c r="T7">
-        <v>0.7277225019053227</v>
+        <v>0.7788469943149724</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>60.76799533333334</v>
+        <v>51.01955666666666</v>
       </c>
       <c r="H8">
-        <v>182.303986</v>
+        <v>153.05867</v>
       </c>
       <c r="I8">
-        <v>0.1980783424394845</v>
+        <v>0.1725638252628821</v>
       </c>
       <c r="J8">
-        <v>0.1980783424394845</v>
+        <v>0.1725638252628821</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>3.349417</v>
+        <v>1.743137</v>
       </c>
       <c r="N8">
-        <v>10.048251</v>
+        <v>5.229411</v>
       </c>
       <c r="O8">
-        <v>0.0602955800561437</v>
+        <v>0.03144673183548247</v>
       </c>
       <c r="P8">
-        <v>0.0602955800561437</v>
+        <v>0.03144673183548247</v>
       </c>
       <c r="Q8">
-        <v>203.5373566253874</v>
+        <v>88.93407694926331</v>
       </c>
       <c r="R8">
-        <v>1831.836209628486</v>
+        <v>800.4066925433699</v>
       </c>
       <c r="S8">
-        <v>0.01194324855394818</v>
+        <v>0.005426568337546908</v>
       </c>
       <c r="T8">
-        <v>0.01194324855394818</v>
+        <v>0.005426568337546908</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>60.76799533333334</v>
+        <v>51.01955666666666</v>
       </c>
       <c r="H9">
-        <v>182.303986</v>
+        <v>153.05867</v>
       </c>
       <c r="I9">
-        <v>0.1980783424394845</v>
+        <v>0.1725638252628821</v>
       </c>
       <c r="J9">
-        <v>0.1980783424394845</v>
+        <v>0.1725638252628821</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,25 +989,25 @@
         <v>1.282876</v>
       </c>
       <c r="N9">
-        <v>3.848628000000001</v>
+        <v>3.848628</v>
       </c>
       <c r="O9">
-        <v>0.023094094452887</v>
+        <v>0.02314348071905789</v>
       </c>
       <c r="P9">
-        <v>0.023094094452887</v>
+        <v>0.02314348071905789</v>
       </c>
       <c r="Q9">
-        <v>77.95780278124535</v>
+        <v>65.45176477830667</v>
       </c>
       <c r="R9">
-        <v>701.6202250312082</v>
+        <v>589.0658830047599</v>
       </c>
       <c r="S9">
-        <v>0.00457443994936875</v>
+        <v>0.003993727562778387</v>
       </c>
       <c r="T9">
-        <v>0.00457443994936875</v>
+        <v>0.003993727562778386</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>60.76799533333334</v>
+        <v>51.01955666666666</v>
       </c>
       <c r="H10">
-        <v>182.303986</v>
+        <v>153.05867</v>
       </c>
       <c r="I10">
-        <v>0.1980783424394845</v>
+        <v>0.1725638252628821</v>
       </c>
       <c r="J10">
-        <v>0.1980783424394845</v>
+        <v>0.1725638252628821</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>50.917666</v>
+        <v>52.405407</v>
       </c>
       <c r="N10">
-        <v>152.752998</v>
+        <v>157.216221</v>
       </c>
       <c r="O10">
-        <v>0.9166103254909692</v>
+        <v>0.9454097874454597</v>
       </c>
       <c r="P10">
-        <v>0.9166103254909692</v>
+        <v>0.9454097874454597</v>
       </c>
       <c r="Q10">
-        <v>3094.164489872225</v>
+        <v>2673.70063207623</v>
       </c>
       <c r="R10">
-        <v>27847.48040885003</v>
+        <v>24063.30568868607</v>
       </c>
       <c r="S10">
-        <v>0.1815606539361675</v>
+        <v>0.1631435293625568</v>
       </c>
       <c r="T10">
-        <v>0.1815606539361675</v>
+        <v>0.1631435293625568</v>
       </c>
     </row>
   </sheetData>
